--- a/household.xlsx
+++ b/household.xlsx
@@ -1,23 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="家具" sheetId="1" r:id="rId1"/>
+    <sheet name="家电" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>冰箱</t>
+  </si>
+  <si>
+    <t>电视机</t>
+  </si>
+  <si>
+    <t>洗衣机</t>
+  </si>
+  <si>
+    <t>大件</t>
+  </si>
+  <si>
+    <t>配件</t>
+  </si>
+  <si>
+    <t>拖线板</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +76,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -343,37 +370,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/household.xlsx
+++ b/household.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>冰箱</t>
   </si>
@@ -33,15 +33,53 @@
   </si>
   <si>
     <t>拖线板</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>要求</t>
+  </si>
+  <si>
+    <t>400升以上
+双开门款
+零度保鲜</t>
+  </si>
+  <si>
+    <t>备选</t>
+  </si>
+  <si>
+    <t>上排水
+滚筒
+6升</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>独立开关</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -68,8 +106,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,38 +430,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B7"/>
+  <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17.5703125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/household.xlsx
+++ b/household.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="家具" sheetId="1" r:id="rId1"/>
-    <sheet name="家电" sheetId="2" r:id="rId2"/>
+    <sheet name="household" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">household!$B$2:$I$24</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>冰箱</t>
   </si>
@@ -26,16 +28,10 @@
     <t>洗衣机</t>
   </si>
   <si>
-    <t>大件</t>
-  </si>
-  <si>
     <t>配件</t>
   </si>
   <si>
     <t>拖线板</t>
-  </si>
-  <si>
-    <t>分类</t>
   </si>
   <si>
     <t>物品</t>
@@ -63,14 +59,130 @@
     <t>大</t>
   </si>
   <si>
-    <t>独立开关</t>
+    <t>http://item.jd.com/1280141.html</t>
+  </si>
+  <si>
+    <t>http://item.jd.com/10111365917.html
+http://item.jd.com/1848331.html</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>总价</t>
+  </si>
+  <si>
+    <t>饭厅</t>
+  </si>
+  <si>
+    <t>客厅</t>
+  </si>
+  <si>
+    <t>阳台</t>
+  </si>
+  <si>
+    <t>卧室(大)</t>
+  </si>
+  <si>
+    <t>卧室(小)</t>
+  </si>
+  <si>
+    <t>床</t>
+  </si>
+  <si>
+    <t>五尺</t>
+  </si>
+  <si>
+    <t>床头柜</t>
+  </si>
+  <si>
+    <t>梳妆台</t>
+  </si>
+  <si>
+    <t>羊毛垫</t>
+  </si>
+  <si>
+    <t>小茶几</t>
+  </si>
+  <si>
+    <t>书橱</t>
+  </si>
+  <si>
+    <t>台灯</t>
+  </si>
+  <si>
+    <t>分控开关</t>
+  </si>
+  <si>
+    <t>http://item.jd.com/1184212.html</t>
+  </si>
+  <si>
+    <t>路由器</t>
+  </si>
+  <si>
+    <t>转角款式</t>
+  </si>
+  <si>
+    <t>饭桌</t>
+  </si>
+  <si>
+    <t>凳子</t>
+  </si>
+  <si>
+    <t>可伸缩</t>
+  </si>
+  <si>
+    <t>电视柜</t>
+  </si>
+  <si>
+    <t>沙发</t>
+  </si>
+  <si>
+    <t>茶几</t>
+  </si>
+  <si>
+    <t>有一定储物功能</t>
+  </si>
+  <si>
+    <t>美观</t>
+  </si>
+  <si>
+    <t>尺寸</t>
+  </si>
+  <si>
+    <t>大衣柜</t>
+  </si>
+  <si>
+    <t>卫生间</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t>储物架</t>
+  </si>
+  <si>
+    <t>金属材质
+可调节</t>
+  </si>
+  <si>
+    <t>加热器</t>
+  </si>
+  <si>
+    <t>防潮</t>
+  </si>
+  <si>
+    <t>马桶圈</t>
+  </si>
+  <si>
+    <t>场所</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,16 +197,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -102,23 +235,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,99 +681,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E6"/>
+  <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="17.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="47" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H3" s="12">
+        <f>F3*G3</f>
+        <v>10000</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10000</v>
+      </c>
+      <c r="H6" s="12">
+        <f>F6*G6</f>
+        <v>10000</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="2:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="12">
+        <f>F22*G22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
+      <c r="G23" s="4">
+        <v>40</v>
+      </c>
+      <c r="H23" s="12">
+        <f>F23*G23</f>
+        <v>200</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <f>SUM(H3:H23)</f>
+        <v>20200</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:I24"/>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I6" r:id="rId2" display="http://item.jd.com/10111365917.html"/>
+    <hyperlink ref="I23" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/household.xlsx
+++ b/household.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -51,149 +51,154 @@
     <t>备选</t>
   </si>
   <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>总价</t>
+  </si>
+  <si>
+    <t>饭厅</t>
+  </si>
+  <si>
+    <t>客厅</t>
+  </si>
+  <si>
+    <t>阳台</t>
+  </si>
+  <si>
+    <t>卧室(大)</t>
+  </si>
+  <si>
+    <t>卧室(小)</t>
+  </si>
+  <si>
+    <t>床</t>
+  </si>
+  <si>
+    <t>五尺</t>
+  </si>
+  <si>
+    <t>床头柜</t>
+  </si>
+  <si>
+    <t>梳妆台</t>
+  </si>
+  <si>
+    <t>羊毛垫</t>
+  </si>
+  <si>
+    <t>小茶几</t>
+  </si>
+  <si>
+    <t>书橱</t>
+  </si>
+  <si>
+    <t>台灯</t>
+  </si>
+  <si>
+    <t>分控开关</t>
+  </si>
+  <si>
+    <t>路由器</t>
+  </si>
+  <si>
+    <t>转角款式</t>
+  </si>
+  <si>
+    <t>饭桌</t>
+  </si>
+  <si>
+    <t>凳子</t>
+  </si>
+  <si>
+    <t>可伸缩</t>
+  </si>
+  <si>
+    <t>电视柜</t>
+  </si>
+  <si>
+    <t>沙发</t>
+  </si>
+  <si>
+    <t>茶几</t>
+  </si>
+  <si>
+    <t>有一定储物功能</t>
+  </si>
+  <si>
+    <t>美观</t>
+  </si>
+  <si>
+    <t>尺寸</t>
+  </si>
+  <si>
+    <t>大衣柜</t>
+  </si>
+  <si>
+    <t>卫生间</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t>储物架</t>
+  </si>
+  <si>
+    <t>金属材质
+可调节</t>
+  </si>
+  <si>
+    <t>加热器</t>
+  </si>
+  <si>
+    <t>防潮</t>
+  </si>
+  <si>
+    <t>马桶圈</t>
+  </si>
+  <si>
+    <t>场所</t>
+  </si>
+  <si>
+    <t>三星：RF60J9061TL
+LG:GR-B24FWSHL GR-M24FWCFL(门中门)
+SHARP:SJ-GT50A-R/N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>上排水
 滚筒
-6升</t>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>http://item.jd.com/1280141.html</t>
-  </si>
-  <si>
-    <t>http://item.jd.com/10111365917.html
-http://item.jd.com/1848331.html</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>总价</t>
-  </si>
-  <si>
-    <t>饭厅</t>
-  </si>
-  <si>
-    <t>客厅</t>
-  </si>
-  <si>
-    <t>阳台</t>
-  </si>
-  <si>
-    <t>卧室(大)</t>
-  </si>
-  <si>
-    <t>卧室(小)</t>
-  </si>
-  <si>
-    <t>床</t>
-  </si>
-  <si>
-    <t>五尺</t>
-  </si>
-  <si>
-    <t>床头柜</t>
-  </si>
-  <si>
-    <t>梳妆台</t>
-  </si>
-  <si>
-    <t>羊毛垫</t>
-  </si>
-  <si>
-    <t>小茶几</t>
-  </si>
-  <si>
-    <t>书橱</t>
-  </si>
-  <si>
-    <t>台灯</t>
-  </si>
-  <si>
-    <t>分控开关</t>
-  </si>
-  <si>
-    <t>http://item.jd.com/1184212.html</t>
-  </si>
-  <si>
-    <t>路由器</t>
-  </si>
-  <si>
-    <t>转角款式</t>
-  </si>
-  <si>
-    <t>饭桌</t>
-  </si>
-  <si>
-    <t>凳子</t>
-  </si>
-  <si>
-    <t>可伸缩</t>
-  </si>
-  <si>
-    <t>电视柜</t>
-  </si>
-  <si>
-    <t>沙发</t>
-  </si>
-  <si>
-    <t>茶几</t>
-  </si>
-  <si>
-    <t>有一定储物功能</t>
-  </si>
-  <si>
-    <t>美观</t>
-  </si>
-  <si>
-    <t>尺寸</t>
-  </si>
-  <si>
-    <t>大衣柜</t>
-  </si>
-  <si>
-    <t>卫生间</t>
-  </si>
-  <si>
-    <t>厨房</t>
-  </si>
-  <si>
-    <t>储物架</t>
-  </si>
-  <si>
-    <t>金属材质
-可调节</t>
-  </si>
-  <si>
-    <t>加热器</t>
-  </si>
-  <si>
-    <t>防潮</t>
-  </si>
-  <si>
-    <t>马桶圈</t>
-  </si>
-  <si>
-    <t>场所</t>
+6公斤以上</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG:WD-H14477DS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星：UA65JU6800JXXZ UA65JU9800JXXZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -201,15 +206,22 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -381,8 +393,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -395,7 +407,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -685,24 +697,24 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.125" style="1"/>
+    <col min="4" max="4" width="17.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.125" style="1"/>
+    <col min="8" max="8" width="17.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="47" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -711,24 +723,24 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="36" x14ac:dyDescent="0.15">
       <c r="B3" s="13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
@@ -740,24 +752,22 @@
       <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
-        <v>10000</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="12">
         <f>F3*G3</f>
-        <v>10000</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B4" s="15"/>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="4">
@@ -767,10 +777,10 @@
       <c r="H4" s="12"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -781,35 +791,33 @@
       <c r="H5" s="12"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
-        <v>10000</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="12">
         <f>F6*G6</f>
-        <v>10000</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B7" s="15"/>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -820,10 +828,10 @@
       <c r="H7" s="12"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B8" s="15"/>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -834,13 +842,13 @@
       <c r="H8" s="12"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B9" s="15"/>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4">
@@ -850,13 +858,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B10" s="14"/>
       <c r="C10" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4">
@@ -866,12 +874,12 @@
       <c r="H10" s="12"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -882,13 +890,13 @@
       <c r="H11" s="12"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4">
@@ -898,10 +906,10 @@
       <c r="H12" s="12"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -912,10 +920,10 @@
       <c r="H13" s="12"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -926,10 +934,10 @@
       <c r="H14" s="12"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -940,10 +948,10 @@
       <c r="H15" s="12"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -954,10 +962,10 @@
       <c r="H16" s="12"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -968,15 +976,15 @@
       <c r="H17" s="12"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4">
@@ -986,15 +994,15 @@
       <c r="H18" s="12"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B19" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
@@ -1002,10 +1010,10 @@
       <c r="H19" s="12"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B20" s="14"/>
       <c r="C20" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1014,15 +1022,15 @@
       <c r="H20" s="12"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="2:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="24" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
@@ -1030,15 +1038,15 @@
       <c r="H21" s="12"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="36" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="4">
@@ -1049,9 +1057,11 @@
         <f>F22*G22</f>
         <v>0</v>
       </c>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="I22" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
       <c r="B23" s="4" t="s">
         <v>3</v>
       </c>
@@ -1059,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="4">
@@ -1072,24 +1082,18 @@
         <f>F23*G23</f>
         <v>200</v>
       </c>
-      <c r="I23" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
       <c r="H24" s="1">
         <f>SUM(H3:H23)</f>
-        <v>20200</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:I24"/>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1"/>
-    <hyperlink ref="I6" r:id="rId2" display="http://item.jd.com/10111365917.html"/>
-    <hyperlink ref="I23" r:id="rId3"/>
-  </hyperlinks>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/household.xlsx
+++ b/household.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -10,14 +10,14 @@
     <sheet name="household" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">household!$B$2:$I$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">household!$B$2:$I$26</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>冰箱</t>
   </si>
@@ -41,164 +41,181 @@
   </si>
   <si>
     <t>要求</t>
+  </si>
+  <si>
+    <t>备选</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <t>总价</t>
+  </si>
+  <si>
+    <t>饭厅</t>
+  </si>
+  <si>
+    <t>客厅</t>
+  </si>
+  <si>
+    <t>阳台</t>
+  </si>
+  <si>
+    <t>卧室(大)</t>
+  </si>
+  <si>
+    <t>卧室(小)</t>
+  </si>
+  <si>
+    <t>床</t>
+  </si>
+  <si>
+    <t>五尺</t>
+  </si>
+  <si>
+    <t>床头柜</t>
+  </si>
+  <si>
+    <t>梳妆台</t>
+  </si>
+  <si>
+    <t>羊毛垫</t>
+  </si>
+  <si>
+    <t>小茶几</t>
+  </si>
+  <si>
+    <t>书橱</t>
+  </si>
+  <si>
+    <t>台灯</t>
+  </si>
+  <si>
+    <t>分控开关</t>
+  </si>
+  <si>
+    <t>路由器</t>
+  </si>
+  <si>
+    <t>转角款式</t>
+  </si>
+  <si>
+    <t>饭桌</t>
+  </si>
+  <si>
+    <t>凳子</t>
+  </si>
+  <si>
+    <t>可伸缩</t>
+  </si>
+  <si>
+    <t>电视柜</t>
+  </si>
+  <si>
+    <t>沙发</t>
+  </si>
+  <si>
+    <t>茶几</t>
+  </si>
+  <si>
+    <t>有一定储物功能</t>
+  </si>
+  <si>
+    <t>美观</t>
+  </si>
+  <si>
+    <t>尺寸</t>
+  </si>
+  <si>
+    <t>大衣柜</t>
+  </si>
+  <si>
+    <t>卫生间</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t>储物架</t>
+  </si>
+  <si>
+    <t>金属材质
+可调节</t>
+  </si>
+  <si>
+    <t>加热器</t>
+  </si>
+  <si>
+    <t>防潮</t>
+  </si>
+  <si>
+    <t>马桶圈</t>
+  </si>
+  <si>
+    <t>场所</t>
+  </si>
+  <si>
+    <t>LG:WD-H14477DS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星：UA65JU6800JXXZ UA65JU9800JXXZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三星：RF60J9061TL
+LG:GR-B24FWSHL GR-M24FWCFL(门中门)
+SHARP:SJ-GT50A-R/N
+松下:NR-F555TH-W5/F555TX-N5</t>
   </si>
   <si>
     <t>400升以上
 双开门款
-零度保鲜</t>
-  </si>
-  <si>
-    <t>备选</t>
-  </si>
-  <si>
-    <t>大</t>
-  </si>
-  <si>
-    <t>单价</t>
-  </si>
-  <si>
-    <t>总价</t>
-  </si>
-  <si>
-    <t>饭厅</t>
-  </si>
-  <si>
-    <t>客厅</t>
-  </si>
-  <si>
-    <t>阳台</t>
-  </si>
-  <si>
-    <t>卧室(大)</t>
-  </si>
-  <si>
-    <t>卧室(小)</t>
-  </si>
-  <si>
-    <t>床</t>
-  </si>
-  <si>
-    <t>五尺</t>
-  </si>
-  <si>
-    <t>床头柜</t>
-  </si>
-  <si>
-    <t>梳妆台</t>
-  </si>
-  <si>
-    <t>羊毛垫</t>
-  </si>
-  <si>
-    <t>小茶几</t>
-  </si>
-  <si>
-    <t>书橱</t>
-  </si>
-  <si>
-    <t>台灯</t>
-  </si>
-  <si>
-    <t>分控开关</t>
-  </si>
-  <si>
-    <t>路由器</t>
-  </si>
-  <si>
-    <t>转角款式</t>
-  </si>
-  <si>
-    <t>饭桌</t>
-  </si>
-  <si>
-    <t>凳子</t>
-  </si>
-  <si>
-    <t>可伸缩</t>
-  </si>
-  <si>
-    <t>电视柜</t>
-  </si>
-  <si>
-    <t>沙发</t>
-  </si>
-  <si>
-    <t>茶几</t>
-  </si>
-  <si>
-    <t>有一定储物功能</t>
-  </si>
-  <si>
-    <t>美观</t>
-  </si>
-  <si>
-    <t>尺寸</t>
-  </si>
-  <si>
-    <t>大衣柜</t>
-  </si>
-  <si>
-    <t>卫生间</t>
-  </si>
-  <si>
-    <t>厨房</t>
-  </si>
-  <si>
-    <t>储物架</t>
-  </si>
-  <si>
-    <t>金属材质
-可调节</t>
-  </si>
-  <si>
-    <t>加热器</t>
-  </si>
-  <si>
-    <t>防潮</t>
-  </si>
-  <si>
-    <t>马桶圈</t>
-  </si>
-  <si>
-    <t>场所</t>
-  </si>
-  <si>
-    <t>三星：RF60J9061TL
-LG:GR-B24FWSHL GR-M24FWCFL(门中门)
-SHARP:SJ-GT50A-R/N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+零度保鲜
+进口？国产？</t>
+  </si>
+  <si>
+    <t>深度66cm</t>
   </si>
   <si>
     <t>上排水
 滚筒
-6公斤以上</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LG:WD-H14477DS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>三星：UA65JU6800JXXZ UA65JU9800JXXZ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+6公斤以上
+蒸汽</t>
+  </si>
+  <si>
+    <t>净水器</t>
+  </si>
+  <si>
+    <t>电加热水器</t>
+  </si>
+  <si>
+    <t>http://item.jd.com/10134274531.html</t>
+  </si>
+  <si>
+    <t>上出水
+26*24*35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -206,20 +223,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -393,8 +410,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -407,7 +424,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -693,28 +710,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I24"/>
+  <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.125" style="1"/>
-    <col min="4" max="4" width="17.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.125" style="1"/>
-    <col min="8" max="8" width="17.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="17.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="47" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.125" style="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>5</v>
@@ -723,30 +741,30 @@
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="51">
+      <c r="B3" s="13" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="B3" s="13" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="4">
@@ -758,16 +776,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15">
       <c r="B4" s="15"/>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="4">
@@ -777,10 +795,10 @@
       <c r="H4" s="12"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" ht="15">
       <c r="B5" s="14"/>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -791,15 +809,15 @@
       <c r="H5" s="12"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9">
       <c r="B6" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4">
@@ -811,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="15">
       <c r="B7" s="15"/>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -828,10 +846,10 @@
       <c r="H7" s="12"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="15">
       <c r="B8" s="15"/>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -842,13 +860,13 @@
       <c r="H8" s="12"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="15">
       <c r="B9" s="15"/>
       <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4">
@@ -858,13 +876,13 @@
       <c r="H9" s="12"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" ht="15">
       <c r="B10" s="14"/>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4">
@@ -874,14 +892,16 @@
       <c r="H10" s="12"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" ht="15">
       <c r="B11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="4">
         <v>1</v>
@@ -890,13 +910,13 @@
       <c r="H11" s="12"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="4">
@@ -906,10 +926,10 @@
       <c r="H12" s="12"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="15">
       <c r="B13" s="3"/>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -920,10 +940,10 @@
       <c r="H13" s="12"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" ht="15">
       <c r="B14" s="3"/>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -934,10 +954,10 @@
       <c r="H14" s="12"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="15">
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -948,10 +968,10 @@
       <c r="H15" s="12"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" ht="15">
       <c r="B16" s="3"/>
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -962,10 +982,10 @@
       <c r="H16" s="12"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="15">
       <c r="B17" s="3"/>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -976,15 +996,15 @@
       <c r="H17" s="12"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="15">
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4">
@@ -994,15 +1014,15 @@
       <c r="H18" s="12"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="15">
       <c r="B19" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
@@ -1010,10 +1030,10 @@
       <c r="H19" s="12"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="15">
       <c r="B20" s="14"/>
       <c r="C20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -1022,15 +1042,15 @@
       <c r="H20" s="12"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="2:9" ht="24" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="2:9" ht="25.5">
+      <c r="B21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
@@ -1038,62 +1058,93 @@
       <c r="H21" s="12"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="2:9" ht="36" x14ac:dyDescent="0.15">
-      <c r="B22" s="4" t="s">
-        <v>15</v>
-      </c>
+    <row r="22" spans="2:9" ht="15">
+      <c r="B22" s="14"/>
       <c r="C22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="2:9" ht="51">
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="12">
-        <f>F22*G22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="6"/>
+      <c r="D23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5"/>
       <c r="F23" s="4">
-        <v>5</v>
-      </c>
-      <c r="G23" s="4">
-        <v>40</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="12">
         <f>F23*G23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="25.5">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="15">
+      <c r="B25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="4">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4">
+        <v>40</v>
+      </c>
+      <c r="H25" s="12">
+        <f>F25*G25</f>
         <v>200</v>
       </c>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="H24" s="1">
-        <f>SUM(H3:H23)</f>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="H26" s="1">
+        <f>SUM(H3:H25)</f>
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I24"/>
+  <autoFilter ref="B2:I26"/>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I24" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>